--- a/src/main/resources/temp/Export.xlsx
+++ b/src/main/resources/temp/Export.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="150" windowWidth="27795" windowHeight="12090"/>
@@ -9,19 +9,16 @@
   <sheets>
     <sheet name="1х2х0,30SHT Ульян" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="21">
   <si>
     <t>Сode:</t>
   </si>
   <si>
-    <t>DS 1740</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -41,6 +38,42 @@
   </si>
   <si>
     <t>Made in Belarus</t>
+  </si>
+  <si>
+    <t>BS-60</t>
+  </si>
+  <si>
+    <t>4001</t>
+  </si>
+  <si>
+    <t>1381</t>
+  </si>
+  <si>
+    <t>09.09.2021</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>12039</t>
+  </si>
+  <si>
+    <t>604016</t>
+  </si>
+  <si>
+    <t>12062</t>
+  </si>
+  <si>
+    <t>4001SSDF</t>
+  </si>
+  <si>
+    <t>LOTTEST</t>
+  </si>
+  <si>
+    <t>BS60</t>
   </si>
   <si>
     <t>TEST</t>
@@ -157,24 +190,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -553,28 +588,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="6.5703125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="12.5703125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="1.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="6.7109375" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="12.140625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="1" width="1.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="1" width="6.5703125" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="1" width="12.28515625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="1" width="1.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="1" width="6.42578125" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="1" width="12.42578125" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="1" width="1.28515625" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="1" width="6.5703125" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="1" width="12.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="1" width="0.5703125" collapsed="false"/>
-    <col min="16" max="16384" style="1" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="1.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="6.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="12.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="1.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="1.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="6.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="1" width="1.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="1" width="6.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="1" width="0.5703125" collapsed="true"/>
+    <col min="16" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -590,9 +625,9 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5" s="16"/>
     </row>
@@ -601,48 +636,58 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="12"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="15"/>
     </row>
@@ -678,8 +723,8 @@
     <row r="40" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:2" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>

--- a/src/main/resources/temp/Export.xlsx
+++ b/src/main/resources/temp/Export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="37">
   <si>
     <t>Сode:</t>
   </si>
@@ -77,6 +77,54 @@
   </si>
   <si>
     <t>TEST</t>
+  </si>
+  <si>
+    <t>BS-40</t>
+  </si>
+  <si>
+    <t>4405</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>05.09.2021</t>
+  </si>
+  <si>
+    <t>542343</t>
+  </si>
+  <si>
+    <t>85854</t>
+  </si>
+  <si>
+    <t>5343</t>
+  </si>
+  <si>
+    <t>25.08.2021</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>605230</t>
+  </si>
+  <si>
+    <t>4403</t>
+  </si>
+  <si>
+    <t>Информация о катушке: №1381</t>
+  </si>
+  <si>
+    <t>04.09.2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>40514</t>
+  </si>
+  <si>
+    <t>4399</t>
   </si>
 </sst>
 </file>
@@ -627,7 +675,7 @@
     </row>
     <row r="5" spans="1:2" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B5" s="16"/>
     </row>
@@ -636,13 +684,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -650,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -658,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -674,7 +722,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/main/resources/temp/Export.xlsx
+++ b/src/main/resources/temp/Export.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Сode:</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>Bob.№</t>
   </si>
   <si>
@@ -52,79 +49,10 @@
     <t>09.09.2021</t>
   </si>
   <si>
-    <t>921</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>12039</t>
-  </si>
-  <si>
     <t>604016</t>
-  </si>
-  <si>
-    <t>12062</t>
-  </si>
-  <si>
-    <t>4001SSDF</t>
-  </si>
-  <si>
-    <t>LOTTEST</t>
-  </si>
-  <si>
-    <t>BS60</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>BS-40</t>
-  </si>
-  <si>
-    <t>4405</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>05.09.2021</t>
-  </si>
-  <si>
-    <t>542343</t>
-  </si>
-  <si>
-    <t>85854</t>
-  </si>
-  <si>
-    <t>5343</t>
-  </si>
-  <si>
-    <t>25.08.2021</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>605230</t>
-  </si>
-  <si>
-    <t>4403</t>
-  </si>
-  <si>
-    <t>Информация о катушке: №1381</t>
-  </si>
-  <si>
-    <t>04.09.2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>40514</t>
-  </si>
-  <si>
-    <t>4399</t>
   </si>
 </sst>
 </file>
@@ -636,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -675,7 +603,7 @@
     </row>
     <row r="5" spans="1:2" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="16"/>
     </row>
@@ -684,58 +612,58 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="15"/>
     </row>

--- a/src/main/resources/temp/Export.xlsx
+++ b/src/main/resources/temp/Export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <t>Сode:</t>
   </si>
@@ -53,6 +53,21 @@
   </si>
   <si>
     <t>604016</t>
+  </si>
+  <si>
+    <t>BS-40</t>
+  </si>
+  <si>
+    <t>4405</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>05.09.2021</t>
+  </si>
+  <si>
+    <t>542343</t>
   </si>
 </sst>
 </file>
@@ -603,7 +618,7 @@
     </row>
     <row r="5" spans="1:2" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" s="16"/>
     </row>
@@ -612,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -634,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/main/resources/temp/Export.xlsx
+++ b/src/main/resources/temp/Export.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="18">
   <si>
     <t>Сode:</t>
   </si>
@@ -52,22 +52,22 @@
     <t/>
   </si>
   <si>
-    <t>604016</t>
-  </si>
-  <si>
-    <t>BS-40</t>
-  </si>
-  <si>
-    <t>4405</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>05.09.2021</t>
-  </si>
-  <si>
-    <t>542343</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>12039</t>
+  </si>
+  <si>
+    <t>921</t>
+  </si>
+  <si>
+    <t>Тип катушки</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>L/R</t>
   </si>
 </sst>
 </file>
@@ -618,38 +618,42 @@
     </row>
     <row r="5" spans="1:2" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="16"/>
-    </row>
-    <row r="6" spans="1:2" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -657,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -665,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/main/resources/temp/Export.xlsx
+++ b/src/main/resources/temp/Export.xlsx
@@ -515,7 +515,7 @@
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="160" zoomScaleNormal="166" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -555,7 +555,7 @@
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
     </row>
-    <row r="6" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12"/>
     </row>
@@ -563,54 +563,54 @@
       <c r="A7" s="6"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="6"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="13"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="14"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="15"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:1" s="8" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:1" s="8" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:1" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:1" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:1" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:1" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:1" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:1" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:1" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:1" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:1" s="8" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
     </row>
     <row r="32" spans="1:1" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
